--- a/Data/MHV-1_Exp-1/MHV1 Pooled Testing Exp 1 Decoded Results with Actual_with_new_standard_curve.xlsx
+++ b/Data/MHV-1_Exp-1/MHV1 Pooled Testing Exp 1 Decoded Results with Actual_with_new_standard_curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiryi.IOWA\Dropbox\CS_Virus_Testing\Codes\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\00_CS_Virus_Testing\Data\MHV-1_Exp-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8229C64-16D6-4A9A-BBB0-3BC1E97113CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E7913C-D660-4014-99A4-7E5F6A6AD234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3690" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="8640" windowWidth="21600" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,8 +383,8 @@
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1443568</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459318</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -425,8 +425,8 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1073150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>639233</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
@@ -761,32 +761,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S94" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF56" sqref="AF56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="5.875" customWidth="1"/>
+    <col min="14" max="14" width="6.875" customWidth="1"/>
+    <col min="15" max="15" width="7.75" customWidth="1"/>
     <col min="17" max="17" width="30.5" customWidth="1"/>
     <col min="18" max="18" width="24.5" customWidth="1"/>
     <col min="19" max="19" width="30.5" customWidth="1"/>
-    <col min="20" max="20" width="24.5" customWidth="1"/>
-    <col min="24" max="24" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="11"/>
-    <col min="27" max="27" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.25" customWidth="1"/>
+    <col min="21" max="21" width="9.25" customWidth="1"/>
+    <col min="23" max="23" width="7.375" customWidth="1"/>
+    <col min="24" max="24" width="3.625" customWidth="1"/>
+    <col min="25" max="25" width="6.25" customWidth="1"/>
+    <col min="26" max="26" width="7.125" style="11" customWidth="1"/>
+    <col min="27" max="27" width="6.625" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="29" max="29" width="17.125" customWidth="1"/>
+    <col min="30" max="30" width="15.75" customWidth="1"/>
+    <col min="31" max="31" width="4.625" customWidth="1"/>
+    <col min="32" max="32" width="10.625" customWidth="1"/>
+    <col min="33" max="33" width="11.5" customWidth="1"/>
     <col min="34" max="35" width="17.375" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="9" bestFit="1" customWidth="1"/>
     <col min="39" max="40" width="3.5" bestFit="1" customWidth="1"/>
